--- a/receive-data/testcases/case3.xlsx
+++ b/receive-data/testcases/case3.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\lib\test\git_nguyenlt_test\import-transaction\import-data\files\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74ACFA36-DD17-47CC-B400-D50713D46FED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2535" yWindow="900" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="data (2)" sheetId="3" r:id="rId1"/>
@@ -19,22 +13,17 @@
   <definedNames>
     <definedName name="ExternalData_1" localSheetId="0" hidden="1">'data (2)'!$A$1:$D$4</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{9EAB25EF-3178-4461-A031-1DC266CD6C08}" keepAlive="1" name="Query - data" description="Connection to the 'data' query in the workbook." type="5" refreshedVersion="7" background="1" saveData="1">
-    <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=data;Extended Properties=&quot;&quot;" command="SELECT * FROM [data]"/>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" name="Query - data" description="Connection to the 'data' query in the workbook." type="5" background="1" refreshedVersion="2" saveData="1">
+    <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=data;Extended Properties=&quot;&quot;" command="SELECT * FROM [data]" commandType="2"/>
   </connection>
-  <connection id="2" xr16:uid="{E4BCB636-3BD0-4137-99B1-3493221ED80F}" keepAlive="1" name="Query - data (2)" description="Connection to the 'data (2)' query in the workbook." type="5" refreshedVersion="7" background="1" saveData="1">
-    <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=&quot;data (2)&quot;;Extended Properties=&quot;&quot;" command="SELECT * FROM [data (2)]"/>
+  <connection id="2" name="Query - data (2)" description="Connection to the 'data (2)' query in the workbook." type="5" background="1" refreshedVersion="2" saveData="1">
+    <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=&quot;data (2)&quot;;Extended Properties=&quot;&quot;" command="SELECT * FROM [data (2)]" commandType="2"/>
   </connection>
 </connections>
 </file>
@@ -63,31 +52,374 @@
     <t>Withdraw</t>
   </si>
   <si>
-    <t>A complete development kit for building scalable server-side apps. Contact us to find out more about expertise consulting, on-site enterprise support, trainings, and private sessions bbbbbbbbbbbbbbbbbbbbbbbbbbbb</t>
+    <t>That's why content marketing for banks and other financial services is a worthwhile investment of your time. If you're looking to get started with financial content marketing, this article shares the benefits of content marketing for financial services, plus highlights the types of content your institution can create.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -95,47 +427,329 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
+  <dxfs count="4">
+    <dxf/>
+    <dxf/>
+    <dxf/>
+    <dxf/>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="2" xr16:uid="{60B471FE-5A62-4689-A16E-ED7C61D23174}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="5">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+  <queryTableRefresh preserveSortFilterLayout="1" nextId="5">
     <queryTableFields count="4">
       <queryTableField id="1" name="date" tableColumnId="1"/>
       <queryTableField id="2" name="content" tableColumnId="2"/>
@@ -147,13 +761,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5C5F643F-731F-4102-B527-81AC4264C692}" name="data__2" displayName="data__2" ref="A1:D4" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:D4" xr:uid="{5C5F643F-731F-4102-B527-81AC4264C692}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="data__2" displayName="data__2" ref="A1:D4" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:D4"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{24673FBA-FD92-4D65-9376-FA7A84183B48}" uniqueName="1" name="date" queryTableFieldId="1" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{372236EE-DFE4-4398-8AA9-FEBBD7655189}" uniqueName="2" name="content" queryTableFieldId="2" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{7158C1DD-B2A2-416B-A414-8EE9546872C9}" uniqueName="3" name="amount" queryTableFieldId="3"/>
-    <tableColumn id="4" xr3:uid="{3DA1C22B-3C5E-4FC1-9A83-78163E72E70F}" uniqueName="4" name="type" queryTableFieldId="4" dataDxfId="0"/>
+    <tableColumn id="1" name="date" uniqueName="1" queryTableFieldId="1" dataDxfId="0"/>
+    <tableColumn id="2" name="content" uniqueName="2" queryTableFieldId="2" dataDxfId="1"/>
+    <tableColumn id="3" name="amount" uniqueName="3" queryTableFieldId="3" dataDxfId="2"/>
+    <tableColumn id="4" name="type" uniqueName="4" queryTableFieldId="4" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -202,7 +816,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -237,7 +851,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -411,32 +1025,27 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3836441-5272-4CA7-BBA5-1DFCA20B6FC8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="81.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.5714285714286" customWidth="1"/>
+    <col min="2" max="2" width="81.1428571428571" customWidth="1"/>
+    <col min="3" max="3" width="10.1428571428571" customWidth="1"/>
+    <col min="4" max="4" width="9.71428571428571" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -450,7 +1059,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>4</v>
@@ -462,7 +1071,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>4</v>
@@ -474,15 +1083,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>43924.847349537034</v>
-      </c>
-      <c r="B4" s="2" t="s">
+    <row r="4" ht="60" spans="1:4">
+      <c r="A4" s="2">
+        <v>44542.847349537</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C4">
-        <v>234.09800000000001</v>
+        <v>230.24</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>6</v>
@@ -490,6 +1099,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
@@ -497,16 +1107,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
@@ -515,8 +1127,6 @@
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B8E0007-95B9-47BC-82D1-61126D961D00}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/DataMashup"/>
-  </ds:schemaRefs>
+  <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>